--- a/SAP_Velotics inc_inventory_spreadsheet.xlsx
+++ b/SAP_Velotics inc_inventory_spreadsheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29318"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2165E72-18F8-4592-944A-9555B3EB271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC57E06-49C3-49E8-9317-57AE3565B583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Inventory list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory list'!$C$2:$F$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory list'!$3:$5</definedName>
     <definedName name="valHighlight">IFERROR(IF('Inventory list'!$E$3="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
@@ -35,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
-  <si>
-    <t>Velotics Inc. Inventory list</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+  <si>
+    <t>Velotics Inc. FERT Daily Inventory list</t>
   </si>
   <si>
     <t>Daily Finished Product (FERT) Stock Report</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Order</t>
   </si>
   <si>
     <t>Product Model</t>
@@ -85,6 +86,9 @@
     <t>Valued GR Stock</t>
   </si>
   <si>
+    <t>Range of Coverage in Days (30 Day Consumption)</t>
+  </si>
+  <si>
     <t>MZ-FG-R300</t>
   </si>
   <si>
@@ -170,6 +174,9 @@
   </si>
   <si>
     <t>Pending Stock total</t>
+  </si>
+  <si>
+    <t>Average Coverage of Days</t>
   </si>
 </sst>
 </file>
@@ -180,7 +187,7 @@
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,12 +240,6 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Aptos"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="4" tint="-0.499984740745262"/>
       <name val="Aptos"/>
     </font>
     <font>
@@ -313,6 +314,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA8B14"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Aptos"/>
     </font>
   </fonts>
@@ -471,12 +490,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,16 +514,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -513,10 +526,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
@@ -540,10 +553,10 @@
     <xf numFmtId="4" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -555,80 +568,89 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="8" borderId="0" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="8" borderId="0" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="9" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="9" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="10" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="10" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -647,7 +669,13 @@
     <cellStyle name="Table details right" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <name val="Aptos"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <name val="Aptos"/>
@@ -766,6 +794,7 @@
       <font>
         <name val="Aptos"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -791,6 +820,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1018,9 +1057,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Inventory List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Inventory List" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1042,8 +1081,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InventoryList" displayName="InventoryList" ref="B5:O42" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B5:O42" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InventoryList" displayName="InventoryList" ref="B5:P42" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B5:P42" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1058,26 +1097,28 @@
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
     <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name=" " dataDxfId="13">
-      <calculatedColumnFormula>IFERROR((InventoryList[[#This Row],[Blocked Stock]]&lt;=InventoryList[[#This Row],[Restricted-Use Stock]])*(InventoryList[[#This Row],[Valued GR Stock]]="")*valHighlight,0)</calculatedColumnFormula>
+  <tableColumns count="15">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Order" dataDxfId="14">
+      <calculatedColumnFormula>IF(AND(F6&lt;=0, E6="Std. storage 1 171A"), "Yes", "No")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Model" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Plant" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Storage Location" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unrestricted-Use Stock" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Blocked Stock" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="QI Stock" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Model" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Plant" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Storage Location" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unrestricted-Use Stock" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Blocked Stock" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="QI Stock" dataDxfId="8">
       <calculatedColumnFormula>InventoryList[[#This Row],[Unrestricted-Use Stock]]*InventoryList[[#This Row],[Blocked Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Restricted-Use Stock" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{A526FDDB-D88A-4B95-A5A9-42A9160FD5AB}" name="Returns" dataDxfId="5" dataCellStyle="Table details right"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stock in Transit" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tied Empties Stock" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{5E958F9A-198D-4CA5-A529-6FC14CCA1056}" name="Transfer Stock (Plant)" dataDxfId="2" dataCellStyle="Table details right"/>
-    <tableColumn id="12" xr3:uid="{45DA54AF-F0BD-409A-973C-8ED48DE16856}" name="Tansfer Stock(Location)" dataDxfId="1" dataCellStyle="Table details right"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Valued GR Stock" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Restricted-Use Stock" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{A526FDDB-D88A-4B95-A5A9-42A9160FD5AB}" name="Returns" dataDxfId="6" dataCellStyle="Table details right"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stock in Transit" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tied Empties Stock" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{5E958F9A-198D-4CA5-A529-6FC14CCA1056}" name="Transfer Stock (Plant)" dataDxfId="3" dataCellStyle="Table details right"/>
+    <tableColumn id="12" xr3:uid="{45DA54AF-F0BD-409A-973C-8ED48DE16856}" name="Tansfer Stock(Location)" dataDxfId="2" dataCellStyle="Table details right"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Valued GR Stock" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{3B42931D-C0B8-4D1F-AF12-49FC161C9BAB}" name="Range of Coverage in Days (30 Day Consumption)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Inventory List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1319,1574 +1360,1804 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B34"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B34"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="4" width="17.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="16" customWidth="1"/>
-    <col min="9" max="9" width="20.875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="17" customWidth="1"/>
-    <col min="12" max="14" width="21.125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="16.875" style="18" customWidth="1"/>
-    <col min="16" max="16" width="7.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="23.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="14" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="15" customWidth="1"/>
+    <col min="12" max="14" width="21.125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="16.875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="44.5" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:15" s="4" customFormat="1" ht="90" customHeight="1">
+    <row r="1" spans="2:16" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:16" s="4" customFormat="1" ht="90" customHeight="1">
       <c r="B2" s="5"/>
       <c r="C2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="2:15" ht="30" customHeight="1">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="2:16" ht="30" customHeight="1">
       <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="2:15" ht="30" customHeight="1">
+      <c r="D3" s="51"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="2:16" ht="30" customHeight="1">
       <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-    </row>
-    <row r="5" spans="2:15" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="2:16" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="30" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="P5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+    </row>
+    <row r="6" spans="2:16" ht="30" customHeight="1">
+      <c r="B6" s="12" t="str">
+        <f>IF(AND(F6&lt;=0, E6="Std. storage 1 171A",P6&gt;0), "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="29">
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="27">
         <v>3877</v>
       </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="29">
-        <v>0</v>
-      </c>
-      <c r="I6" s="31">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0</v>
-      </c>
-      <c r="K6" s="31">
-        <v>0</v>
-      </c>
-      <c r="L6" s="31">
-        <v>0</v>
-      </c>
-      <c r="M6" s="31">
-        <v>0</v>
-      </c>
-      <c r="N6" s="31">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="30" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0</v>
+      </c>
+      <c r="N6" s="29">
+        <v>0</v>
+      </c>
+      <c r="O6" s="31">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31">
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="30" customHeight="1">
+      <c r="B7" s="12" t="str">
+        <f t="shared" ref="B7:B34" si="0">IF(AND(F7&lt;=0, E7="Std. storage 1 171A",P7&gt;0), "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="27">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29">
+        <v>0</v>
+      </c>
+      <c r="N7" s="29">
+        <v>0</v>
+      </c>
+      <c r="O7" s="31">
+        <v>0</v>
+      </c>
+      <c r="P7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="30" customHeight="1">
+      <c r="B8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="29">
-        <v>6000</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0</v>
-      </c>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32">
-        <v>0</v>
-      </c>
-      <c r="K7" s="31">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31">
-        <v>0</v>
-      </c>
-      <c r="M7" s="31">
-        <v>0</v>
-      </c>
-      <c r="N7" s="31">
-        <v>0</v>
-      </c>
-      <c r="O7" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="30" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+      <c r="O8" s="31">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="30" customHeight="1">
+      <c r="B9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="32">
-        <v>0</v>
-      </c>
-      <c r="K8" s="31">
-        <v>0</v>
-      </c>
-      <c r="L8" s="31">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31">
-        <v>0</v>
-      </c>
-      <c r="N8" s="31">
-        <v>0</v>
-      </c>
-      <c r="O8" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="30" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="27">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29">
+        <v>0</v>
+      </c>
+      <c r="N9" s="29">
+        <v>0</v>
+      </c>
+      <c r="O9" s="31">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="30" customHeight="1">
+      <c r="B10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="29">
-        <v>10000</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="29">
-        <v>0</v>
-      </c>
-      <c r="I9" s="31">
-        <v>0</v>
-      </c>
-      <c r="J9" s="32">
-        <v>0</v>
-      </c>
-      <c r="K9" s="31">
-        <v>0</v>
-      </c>
-      <c r="L9" s="31">
-        <v>0</v>
-      </c>
-      <c r="M9" s="31">
-        <v>0</v>
-      </c>
-      <c r="N9" s="31">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="30" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="27">
+        <v>4345</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
+        <v>0</v>
+      </c>
+      <c r="N10" s="29">
+        <v>0</v>
+      </c>
+      <c r="O10" s="31">
+        <v>0</v>
+      </c>
+      <c r="P10" s="31">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="30" customHeight="1">
+      <c r="B11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="29">
-        <v>4345</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="29">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="32">
-        <v>0</v>
-      </c>
-      <c r="K10" s="31">
-        <v>0</v>
-      </c>
-      <c r="L10" s="31">
-        <v>0</v>
-      </c>
-      <c r="M10" s="31">
-        <v>0</v>
-      </c>
-      <c r="N10" s="31">
-        <v>0</v>
-      </c>
-      <c r="O10" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="27">
+        <v>200</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0</v>
+      </c>
+      <c r="L11" s="29">
+        <v>0</v>
+      </c>
+      <c r="M11" s="29">
+        <v>0</v>
+      </c>
+      <c r="N11" s="29">
+        <v>0</v>
+      </c>
+      <c r="O11" s="31">
+        <v>0</v>
+      </c>
+      <c r="P11" s="31">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="30" customHeight="1">
+      <c r="B12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="29">
-        <v>200</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="31">
-        <v>0</v>
-      </c>
-      <c r="J11" s="32">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0</v>
-      </c>
-      <c r="L11" s="31">
-        <v>0</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0</v>
-      </c>
-      <c r="N11" s="31">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="30" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="29">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
         <v>1</v>
       </c>
-      <c r="I12" s="31">
-        <v>0</v>
-      </c>
-      <c r="J12" s="32">
-        <v>0</v>
-      </c>
-      <c r="K12" s="31">
-        <v>0</v>
-      </c>
-      <c r="L12" s="31">
-        <v>0</v>
-      </c>
-      <c r="M12" s="31">
-        <v>0</v>
-      </c>
-      <c r="N12" s="31">
-        <v>0</v>
-      </c>
-      <c r="O12" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="30" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="I12" s="29">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
+        <v>0</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0</v>
+      </c>
+      <c r="O12" s="31">
+        <v>0</v>
+      </c>
+      <c r="P12" s="31">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="30" customHeight="1">
+      <c r="B13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="27">
+        <v>500</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>226</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0</v>
+      </c>
+      <c r="O13" s="31">
+        <v>0</v>
+      </c>
+      <c r="P13" s="31">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="30" customHeight="1">
+      <c r="B14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="27">
+        <v>99</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="31">
+        <v>0</v>
+      </c>
+      <c r="P14" s="31">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="30" customHeight="1">
+      <c r="B15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="27">
+        <v>40</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
+        <v>0</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0</v>
+      </c>
+      <c r="O15" s="31">
+        <v>0</v>
+      </c>
+      <c r="P15" s="31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="30" customHeight="1">
+      <c r="B16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="27">
+        <v>32370</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="30">
+        <v>0</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0</v>
+      </c>
+      <c r="O16" s="31">
+        <v>0</v>
+      </c>
+      <c r="P16" s="31">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="30" customHeight="1">
+      <c r="B17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="27">
+        <v>19</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
+        <v>0</v>
+      </c>
+      <c r="M17" s="29">
+        <v>0</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0</v>
+      </c>
+      <c r="O17" s="31">
+        <v>0</v>
+      </c>
+      <c r="P17" s="31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="30" customHeight="1">
+      <c r="B18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="27">
+        <v>5</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0</v>
+      </c>
+      <c r="J18" s="30">
+        <v>0</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0</v>
+      </c>
+      <c r="M18" s="29">
+        <v>0</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0</v>
+      </c>
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
+      <c r="P18" s="31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="30" customHeight="1">
+      <c r="B19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="27">
+        <v>10426</v>
+      </c>
+      <c r="G19" s="28">
+        <v>5</v>
+      </c>
+      <c r="H19" s="27">
+        <v>11210</v>
+      </c>
+      <c r="I19" s="29">
+        <v>0</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="29">
+        <v>0</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0</v>
+      </c>
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
+      <c r="P19" s="31">
+        <v>23.62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="30" customHeight="1">
+      <c r="B20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="27">
+        <v>3724</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0</v>
+      </c>
+      <c r="I20" s="29">
+        <v>0</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0</v>
+      </c>
+      <c r="K20" s="29">
+        <v>0</v>
+      </c>
+      <c r="L20" s="29">
+        <v>0</v>
+      </c>
+      <c r="M20" s="29">
+        <v>0</v>
+      </c>
+      <c r="N20" s="29">
+        <v>0</v>
+      </c>
+      <c r="O20" s="31">
+        <v>0</v>
+      </c>
+      <c r="P20" s="31">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="30" customHeight="1">
+      <c r="B21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="27">
+        <v>5476</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0</v>
+      </c>
+      <c r="H21" s="27">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0</v>
+      </c>
+      <c r="J21" s="30">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
+      <c r="M21" s="29">
+        <v>0</v>
+      </c>
+      <c r="N21" s="29">
+        <v>0</v>
+      </c>
+      <c r="O21" s="31">
+        <v>0</v>
+      </c>
+      <c r="P21" s="31">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="30" customHeight="1">
+      <c r="B22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="27">
+        <v>3068</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="27">
+        <v>0</v>
+      </c>
+      <c r="I22" s="29">
+        <v>0</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0</v>
+      </c>
+      <c r="K22" s="29">
+        <v>0</v>
+      </c>
+      <c r="L22" s="29">
+        <v>0</v>
+      </c>
+      <c r="M22" s="29">
+        <v>0</v>
+      </c>
+      <c r="N22" s="29">
+        <v>0</v>
+      </c>
+      <c r="O22" s="31">
+        <v>0</v>
+      </c>
+      <c r="P22" s="31">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="30" customHeight="1">
+      <c r="B23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="27">
+        <v>14</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <v>1</v>
+      </c>
+      <c r="I23" s="29">
+        <v>0</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0</v>
+      </c>
+      <c r="K23" s="29">
+        <v>0</v>
+      </c>
+      <c r="L23" s="29">
+        <v>0</v>
+      </c>
+      <c r="M23" s="29">
+        <v>0</v>
+      </c>
+      <c r="N23" s="29">
+        <v>0</v>
+      </c>
+      <c r="O23" s="31">
+        <v>0</v>
+      </c>
+      <c r="P23" s="31">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="30" customHeight="1">
+      <c r="B24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="27">
+        <v>695</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0</v>
+      </c>
+      <c r="H24" s="27">
+        <v>0</v>
+      </c>
+      <c r="I24" s="29">
+        <v>0</v>
+      </c>
+      <c r="J24" s="30">
+        <v>0</v>
+      </c>
+      <c r="K24" s="29">
+        <v>0</v>
+      </c>
+      <c r="L24" s="29">
+        <v>0</v>
+      </c>
+      <c r="M24" s="29">
+        <v>0</v>
+      </c>
+      <c r="N24" s="29">
+        <v>0</v>
+      </c>
+      <c r="O24" s="31">
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="30" customHeight="1">
+      <c r="B25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="27">
+        <v>48</v>
+      </c>
+      <c r="G25" s="28">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0</v>
+      </c>
+      <c r="I25" s="29">
+        <v>0</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0</v>
+      </c>
+      <c r="K25" s="29">
+        <v>0</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+      <c r="M25" s="29">
+        <v>0</v>
+      </c>
+      <c r="N25" s="29">
+        <v>0</v>
+      </c>
+      <c r="O25" s="31">
+        <v>0</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="30" customHeight="1">
+      <c r="B26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="27">
+        <v>133</v>
+      </c>
+      <c r="G26" s="28">
+        <v>0</v>
+      </c>
+      <c r="H26" s="27">
+        <v>0</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0</v>
+      </c>
+      <c r="J26" s="30">
+        <v>0</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+      <c r="M26" s="29">
+        <v>0</v>
+      </c>
+      <c r="N26" s="29">
+        <v>0</v>
+      </c>
+      <c r="O26" s="31">
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="30" customHeight="1">
+      <c r="B27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
+        <v>0</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0</v>
+      </c>
+      <c r="J27" s="30">
+        <v>0</v>
+      </c>
+      <c r="K27" s="29">
+        <v>0</v>
+      </c>
+      <c r="L27" s="29">
+        <v>0</v>
+      </c>
+      <c r="M27" s="29">
+        <v>0</v>
+      </c>
+      <c r="N27" s="29">
+        <v>0</v>
+      </c>
+      <c r="O27" s="31">
+        <v>0</v>
+      </c>
+      <c r="P27" s="31">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="30" customHeight="1">
+      <c r="B28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="29">
-        <v>500</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
-        <v>226</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="32">
-        <v>0</v>
-      </c>
-      <c r="K13" s="31">
-        <v>0</v>
-      </c>
-      <c r="L13" s="31">
-        <v>0</v>
-      </c>
-      <c r="M13" s="31">
-        <v>0</v>
-      </c>
-      <c r="N13" s="31">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="30" customHeight="1">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="F28" s="27">
+        <v>100</v>
+      </c>
+      <c r="G28" s="28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0</v>
+      </c>
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+      <c r="J28" s="30">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29">
+        <v>0</v>
+      </c>
+      <c r="L28" s="29">
+        <v>0</v>
+      </c>
+      <c r="M28" s="29">
+        <v>0</v>
+      </c>
+      <c r="N28" s="29">
+        <v>0</v>
+      </c>
+      <c r="O28" s="31">
+        <v>0</v>
+      </c>
+      <c r="P28" s="31">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="30" customHeight="1">
+      <c r="B29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="27">
+        <v>1205</v>
+      </c>
+      <c r="G29" s="28">
+        <v>40</v>
+      </c>
+      <c r="H29" s="27">
+        <v>0</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="30">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="31">
+        <v>0</v>
+      </c>
+      <c r="P29" s="31">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="30" customHeight="1">
+      <c r="B30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1884</v>
+      </c>
+      <c r="G30" s="28">
+        <v>0</v>
+      </c>
+      <c r="H30" s="27">
+        <v>0</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0</v>
+      </c>
+      <c r="J30" s="30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="29">
+        <v>0</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+      <c r="M30" s="29">
+        <v>0</v>
+      </c>
+      <c r="N30" s="29">
+        <v>0</v>
+      </c>
+      <c r="O30" s="31">
+        <v>0</v>
+      </c>
+      <c r="P30" s="31">
+        <v>66.19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="30" customHeight="1">
+      <c r="B31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="27">
+        <v>9</v>
+      </c>
+      <c r="G31" s="28">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+      <c r="J31" s="30">
+        <v>0</v>
+      </c>
+      <c r="K31" s="29">
+        <v>0</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0</v>
+      </c>
+      <c r="M31" s="29">
+        <v>0</v>
+      </c>
+      <c r="N31" s="29">
+        <v>0</v>
+      </c>
+      <c r="O31" s="31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="31">
+        <v>66.19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="30" customHeight="1">
+      <c r="B32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="29">
-        <v>99</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
-        <v>0</v>
-      </c>
-      <c r="I14" s="31">
-        <v>0</v>
-      </c>
-      <c r="J14" s="32">
-        <v>0</v>
-      </c>
-      <c r="K14" s="31">
-        <v>0</v>
-      </c>
-      <c r="L14" s="31">
-        <v>0</v>
-      </c>
-      <c r="M14" s="31">
-        <v>0</v>
-      </c>
-      <c r="N14" s="31">
-        <v>0</v>
-      </c>
-      <c r="O14" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="30" customHeight="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="F32" s="27">
+        <v>0</v>
+      </c>
+      <c r="G32" s="28">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+      <c r="J32" s="30">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>0</v>
+      </c>
+      <c r="N32" s="29">
+        <v>0</v>
+      </c>
+      <c r="O32" s="31">
+        <v>0</v>
+      </c>
+      <c r="P32" s="31">
+        <v>66.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30" customHeight="1">
+      <c r="B33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="29">
+      <c r="E33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="27">
+        <v>3795</v>
+      </c>
+      <c r="G33" s="28">
+        <v>1</v>
+      </c>
+      <c r="H33" s="27">
+        <v>0</v>
+      </c>
+      <c r="I33" s="29">
+        <v>0</v>
+      </c>
+      <c r="J33" s="30">
+        <v>0</v>
+      </c>
+      <c r="K33" s="29">
+        <v>0</v>
+      </c>
+      <c r="L33" s="29">
+        <v>0</v>
+      </c>
+      <c r="M33" s="29">
+        <v>0</v>
+      </c>
+      <c r="N33" s="29">
+        <v>0</v>
+      </c>
+      <c r="O33" s="31">
+        <v>0</v>
+      </c>
+      <c r="P33" s="31">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" customHeight="1">
+      <c r="B34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31">
-        <v>0</v>
-      </c>
-      <c r="J15" s="32">
-        <v>0</v>
-      </c>
-      <c r="K15" s="31">
-        <v>0</v>
-      </c>
-      <c r="L15" s="31">
-        <v>0</v>
-      </c>
-      <c r="M15" s="31">
-        <v>0</v>
-      </c>
-      <c r="N15" s="31">
-        <v>0</v>
-      </c>
-      <c r="O15" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="30" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="29">
-        <v>32370</v>
-      </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29">
-        <v>0</v>
-      </c>
-      <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
-        <v>0</v>
-      </c>
-      <c r="K16" s="31">
-        <v>0</v>
-      </c>
-      <c r="L16" s="31">
-        <v>0</v>
-      </c>
-      <c r="M16" s="31">
-        <v>0</v>
-      </c>
-      <c r="N16" s="31">
-        <v>0</v>
-      </c>
-      <c r="O16" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="30" customHeight="1">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="29">
-        <v>19</v>
-      </c>
-      <c r="G17" s="30">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29">
-        <v>0</v>
-      </c>
-      <c r="I17" s="31">
-        <v>0</v>
-      </c>
-      <c r="J17" s="32">
-        <v>0</v>
-      </c>
-      <c r="K17" s="31">
-        <v>0</v>
-      </c>
-      <c r="L17" s="31">
-        <v>0</v>
-      </c>
-      <c r="M17" s="31">
-        <v>0</v>
-      </c>
-      <c r="N17" s="31">
-        <v>0</v>
-      </c>
-      <c r="O17" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="30" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="29">
-        <v>5</v>
-      </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29">
-        <v>0</v>
-      </c>
-      <c r="I18" s="31">
-        <v>0</v>
-      </c>
-      <c r="J18" s="32">
-        <v>0</v>
-      </c>
-      <c r="K18" s="31">
-        <v>0</v>
-      </c>
-      <c r="L18" s="31">
-        <v>0</v>
-      </c>
-      <c r="M18" s="31">
-        <v>0</v>
-      </c>
-      <c r="N18" s="31">
-        <v>0</v>
-      </c>
-      <c r="O18" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="30" customHeight="1">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="29">
-        <v>10426</v>
-      </c>
-      <c r="G19" s="30">
-        <v>5</v>
-      </c>
-      <c r="H19" s="29">
-        <v>11210</v>
-      </c>
-      <c r="I19" s="31">
-        <v>0</v>
-      </c>
-      <c r="J19" s="32">
-        <v>0</v>
-      </c>
-      <c r="K19" s="31">
-        <v>0</v>
-      </c>
-      <c r="L19" s="31">
-        <v>0</v>
-      </c>
-      <c r="M19" s="31">
-        <v>0</v>
-      </c>
-      <c r="N19" s="31">
-        <v>0</v>
-      </c>
-      <c r="O19" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="29">
-        <v>3724</v>
-      </c>
-      <c r="G20" s="30">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29">
-        <v>0</v>
-      </c>
-      <c r="I20" s="31">
-        <v>0</v>
-      </c>
-      <c r="J20" s="32">
-        <v>0</v>
-      </c>
-      <c r="K20" s="31">
-        <v>0</v>
-      </c>
-      <c r="L20" s="31">
-        <v>0</v>
-      </c>
-      <c r="M20" s="31">
-        <v>0</v>
-      </c>
-      <c r="N20" s="31">
-        <v>0</v>
-      </c>
-      <c r="O20" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="29">
-        <v>5476</v>
-      </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0</v>
-      </c>
-      <c r="I21" s="31">
-        <v>0</v>
-      </c>
-      <c r="J21" s="32">
-        <v>0</v>
-      </c>
-      <c r="K21" s="31">
-        <v>0</v>
-      </c>
-      <c r="L21" s="31">
-        <v>0</v>
-      </c>
-      <c r="M21" s="31">
-        <v>0</v>
-      </c>
-      <c r="N21" s="31">
-        <v>0</v>
-      </c>
-      <c r="O21" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="30" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="29">
-        <v>3068</v>
-      </c>
-      <c r="G22" s="30">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29">
-        <v>0</v>
-      </c>
-      <c r="I22" s="31">
-        <v>0</v>
-      </c>
-      <c r="J22" s="32">
-        <v>0</v>
-      </c>
-      <c r="K22" s="31">
-        <v>0</v>
-      </c>
-      <c r="L22" s="31">
-        <v>0</v>
-      </c>
-      <c r="M22" s="31">
-        <v>0</v>
-      </c>
-      <c r="N22" s="31">
-        <v>0</v>
-      </c>
-      <c r="O22" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="30" customHeight="1">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="29">
-        <v>14</v>
-      </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>1</v>
-      </c>
-      <c r="I23" s="31">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31">
-        <v>0</v>
-      </c>
-      <c r="L23" s="31">
-        <v>0</v>
-      </c>
-      <c r="M23" s="31">
-        <v>0</v>
-      </c>
-      <c r="N23" s="31">
-        <v>0</v>
-      </c>
-      <c r="O23" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="30" customHeight="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="29">
-        <v>695</v>
-      </c>
-      <c r="G24" s="30">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29">
-        <v>0</v>
-      </c>
-      <c r="I24" s="31">
-        <v>0</v>
-      </c>
-      <c r="J24" s="32">
-        <v>0</v>
-      </c>
-      <c r="K24" s="31">
-        <v>0</v>
-      </c>
-      <c r="L24" s="31">
-        <v>0</v>
-      </c>
-      <c r="M24" s="31">
-        <v>0</v>
-      </c>
-      <c r="N24" s="31">
-        <v>0</v>
-      </c>
-      <c r="O24" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="30" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="29">
-        <v>48</v>
-      </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29">
-        <v>0</v>
-      </c>
-      <c r="I25" s="31">
-        <v>0</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="31">
-        <v>0</v>
-      </c>
-      <c r="L25" s="31">
-        <v>0</v>
-      </c>
-      <c r="M25" s="31">
-        <v>0</v>
-      </c>
-      <c r="N25" s="31">
-        <v>0</v>
-      </c>
-      <c r="O25" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="30" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="29">
-        <v>133</v>
-      </c>
-      <c r="G26" s="30">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29">
-        <v>0</v>
-      </c>
-      <c r="I26" s="31">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="31">
-        <v>0</v>
-      </c>
-      <c r="L26" s="31">
-        <v>0</v>
-      </c>
-      <c r="M26" s="31">
-        <v>0</v>
-      </c>
-      <c r="N26" s="31">
-        <v>0</v>
-      </c>
-      <c r="O26" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="30" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="29">
-        <v>0</v>
-      </c>
-      <c r="G27" s="30">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29">
-        <v>0</v>
-      </c>
-      <c r="I27" s="31">
-        <v>0</v>
-      </c>
-      <c r="J27" s="32">
-        <v>0</v>
-      </c>
-      <c r="K27" s="31">
-        <v>0</v>
-      </c>
-      <c r="L27" s="31">
-        <v>0</v>
-      </c>
-      <c r="M27" s="31">
-        <v>0</v>
-      </c>
-      <c r="N27" s="31">
-        <v>0</v>
-      </c>
-      <c r="O27" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="30" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="29">
-        <v>100</v>
-      </c>
-      <c r="G28" s="30">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29">
-        <v>0</v>
-      </c>
-      <c r="I28" s="31">
-        <v>0</v>
-      </c>
-      <c r="J28" s="32">
-        <v>0</v>
-      </c>
-      <c r="K28" s="31">
-        <v>0</v>
-      </c>
-      <c r="L28" s="31">
-        <v>0</v>
-      </c>
-      <c r="M28" s="31">
-        <v>0</v>
-      </c>
-      <c r="N28" s="31">
-        <v>0</v>
-      </c>
-      <c r="O28" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="30" customHeight="1">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="29">
-        <v>1205</v>
-      </c>
-      <c r="G29" s="30">
-        <v>40</v>
-      </c>
-      <c r="H29" s="29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="31">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0</v>
-      </c>
-      <c r="K29" s="31">
-        <v>0</v>
-      </c>
-      <c r="L29" s="31">
-        <v>0</v>
-      </c>
-      <c r="M29" s="31">
-        <v>0</v>
-      </c>
-      <c r="N29" s="31">
-        <v>0</v>
-      </c>
-      <c r="O29" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="30" customHeight="1">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="29">
-        <v>1884</v>
-      </c>
-      <c r="G30" s="30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="29">
-        <v>0</v>
-      </c>
-      <c r="I30" s="31">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="31">
-        <v>0</v>
-      </c>
-      <c r="L30" s="31">
-        <v>0</v>
-      </c>
-      <c r="M30" s="31">
-        <v>0</v>
-      </c>
-      <c r="N30" s="31">
-        <v>0</v>
-      </c>
-      <c r="O30" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="30" customHeight="1">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="29">
-        <v>9</v>
-      </c>
-      <c r="G31" s="30">
-        <v>0</v>
-      </c>
-      <c r="H31" s="29">
-        <v>0</v>
-      </c>
-      <c r="I31" s="31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="32">
-        <v>0</v>
-      </c>
-      <c r="K31" s="31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="31">
-        <v>0</v>
-      </c>
-      <c r="M31" s="31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="31">
-        <v>0</v>
-      </c>
-      <c r="O31" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="30" customHeight="1">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0</v>
-      </c>
-      <c r="G32" s="30">
-        <v>0</v>
-      </c>
-      <c r="H32" s="29">
-        <v>0</v>
-      </c>
-      <c r="I32" s="31">
-        <v>0</v>
-      </c>
-      <c r="J32" s="32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="31">
-        <v>0</v>
-      </c>
-      <c r="L32" s="31">
-        <v>0</v>
-      </c>
-      <c r="M32" s="31">
-        <v>0</v>
-      </c>
-      <c r="N32" s="31">
-        <v>0</v>
-      </c>
-      <c r="O32" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="30" customHeight="1">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="29">
-        <v>3795</v>
-      </c>
-      <c r="G33" s="30">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29">
-        <v>0</v>
-      </c>
-      <c r="I33" s="31">
-        <v>0</v>
-      </c>
-      <c r="J33" s="32">
-        <v>0</v>
-      </c>
-      <c r="K33" s="31">
-        <v>0</v>
-      </c>
-      <c r="L33" s="31">
-        <v>0</v>
-      </c>
-      <c r="M33" s="31">
-        <v>0</v>
-      </c>
-      <c r="N33" s="31">
-        <v>0</v>
-      </c>
-      <c r="O33" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="30" customHeight="1">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="29">
+      <c r="E34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="27">
         <v>51</v>
       </c>
-      <c r="G34" s="30">
-        <v>0</v>
-      </c>
-      <c r="H34" s="29">
-        <v>0</v>
-      </c>
-      <c r="I34" s="31">
-        <v>0</v>
-      </c>
-      <c r="J34" s="32">
-        <v>0</v>
-      </c>
-      <c r="K34" s="31">
-        <v>0</v>
-      </c>
-      <c r="L34" s="31">
-        <v>0</v>
-      </c>
-      <c r="M34" s="31">
-        <v>0</v>
-      </c>
-      <c r="N34" s="31">
-        <v>0</v>
-      </c>
-      <c r="O34" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="30" customHeight="1">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="25"/>
-    </row>
-    <row r="36" spans="1:15" ht="30" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="40" t="s">
+      <c r="G34" s="28">
+        <v>0</v>
+      </c>
+      <c r="H34" s="27">
+        <v>0</v>
+      </c>
+      <c r="I34" s="29">
+        <v>0</v>
+      </c>
+      <c r="J34" s="30">
+        <v>0</v>
+      </c>
+      <c r="K34" s="29">
+        <v>0</v>
+      </c>
+      <c r="L34" s="29">
+        <v>0</v>
+      </c>
+      <c r="M34" s="29">
+        <v>0</v>
+      </c>
+      <c r="N34" s="29">
+        <v>0</v>
+      </c>
+      <c r="O34" s="31">
+        <v>0</v>
+      </c>
+      <c r="P34" s="31">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30" customHeight="1">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="1:16" ht="30" customHeight="1">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="44">
+      <c r="D36" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="42">
         <f>SUM(F6:F35)</f>
         <v>88083</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="43">
         <f>SUM(G6:G35)</f>
         <v>46</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="44">
         <f>SUM(H6:H35)</f>
         <v>11438</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="47">
+      <c r="I36" s="33"/>
+      <c r="J36" s="45">
         <f>SUM(J6:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="36"/>
-    </row>
-    <row r="37" spans="1:15" ht="30" customHeight="1">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="48">
+      <c r="K36" s="40"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+    </row>
+    <row r="37" spans="1:16" ht="30" customHeight="1">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="46">
         <f>SUM(F36-G36-H36-J36)</f>
         <v>76599</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="25"/>
-    </row>
-    <row r="38" spans="1:15" ht="30" customHeight="1">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="49">
+      <c r="G37" s="39"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+    </row>
+    <row r="38" spans="1:16" ht="30" customHeight="1">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="47">
         <f>SUM(G36+H36+J36)</f>
         <v>11484</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="25"/>
-    </row>
-    <row r="39" spans="1:15" ht="30" customHeight="1">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="25"/>
-    </row>
-    <row r="40" spans="1:15" ht="30" customHeight="1">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-    </row>
-    <row r="41" spans="1:15" ht="30" customHeight="1">
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="25"/>
-    </row>
-    <row r="42" spans="1:15" ht="30" customHeight="1">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25"/>
-    </row>
-    <row r="43" spans="1:15" ht="30" customHeight="1">
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+    </row>
+    <row r="39" spans="1:16" ht="30" customHeight="1">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="49">
+        <f>AVERAGE(P6:P34)</f>
+        <v>15.64413793103448</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="1:16" ht="30" customHeight="1">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="1:16" ht="30" customHeight="1">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+    </row>
+    <row r="42" spans="1:16" ht="30" customHeight="1">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+    </row>
+    <row r="43" spans="1:16" ht="30" customHeight="1">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C35:O42 C6:C34 E6:O34">
-    <cfRule type="expression" dxfId="29" priority="21">
+  <conditionalFormatting sqref="C35:P42 C6:C34 E6:P23 E24:O26 E27:P34">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$B6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="47">
+    <cfRule type="expression" dxfId="30" priority="51">
       <formula>$O6="yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:O43">
-    <cfRule type="expression" dxfId="27" priority="1">
+  <conditionalFormatting sqref="C43:P43">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>$B43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>$O43="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14 D16:D18 D20:D23 D30:D32">
-    <cfRule type="expression" dxfId="25" priority="82">
+    <cfRule type="expression" dxfId="27" priority="86">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="83">
+    <cfRule type="expression" dxfId="26" priority="87">
       <formula>$O5="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="23" priority="86">
+    <cfRule type="expression" dxfId="25" priority="90">
       <formula>$B10=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="87">
+    <cfRule type="expression" dxfId="24" priority="91">
       <formula>$O10="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 D24:D26 D29">
-    <cfRule type="expression" dxfId="21" priority="99">
+    <cfRule type="expression" dxfId="23" priority="103">
       <formula>$B17=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="100">
+    <cfRule type="expression" dxfId="22" priority="104">
       <formula>$O17="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D28">
-    <cfRule type="expression" dxfId="19" priority="103">
+    <cfRule type="expression" dxfId="21" priority="107">
       <formula>$B24=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="104">
+    <cfRule type="expression" dxfId="20" priority="108">
       <formula>$O24="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D34">
-    <cfRule type="expression" dxfId="17" priority="105">
+    <cfRule type="expression" dxfId="19" priority="109">
       <formula>$B29=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="106">
+    <cfRule type="expression" dxfId="18" priority="110">
       <formula>$O29="yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B34">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B34">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B34">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B34">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
@@ -2903,7 +3174,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="I5:J5" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="K5" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="L5:N5" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="O5" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="O5:P5" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have light brown fill and a Yes in the Discontinued column" sqref="A1" xr:uid="{61B31B52-784C-43B9-8254-5BE5C68B470D}"/>
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Only an input of Yes will highlight items to reorder" prompt="Selecting Yes from the dropdown in cell E3 will highlight rows and place a flag icon in Column B of the inventory list table to indicate items that are ready to be reordered" sqref="C3" xr:uid="{C8E531FF-3C36-461E-9CCD-164C5E7DBA2D}"/>
   </dataValidations>
@@ -2918,7 +3189,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="96" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
+          <x14:cfRule type="iconSet" priority="100" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2943,6 +3214,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3254,45 +3554,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB283E77-2264-47B9-94AE-7B3A03782CFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24526D72-D4E7-46D8-A414-A78981229D3F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24526D72-D4E7-46D8-A414-A78981229D3F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658B6233-D648-4BFB-B766-96BACA8EB1AA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658B6233-D648-4BFB-B766-96BACA8EB1AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB283E77-2264-47B9-94AE-7B3A03782CFA}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
